--- a/data/landings/cdfw/public/fish_bulletins/raw/fb15/raw/Table92.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb15/raw/Table92.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb15/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4F185F-A89B-9640-8B21-AB4E4100FF6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4780FFE-3A41-024A-9B77-A47B38FD33F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23120" yWindow="460" windowWidth="24100" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="5800" windowWidth="24100" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1284,7 +1284,7 @@
         <v>59929</v>
       </c>
       <c r="C16" s="1">
-        <v>64251</v>
+        <v>64254</v>
       </c>
       <c r="D16" s="1">
         <v>103689</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="O16" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
@@ -1431,7 +1431,7 @@
         <v>4408</v>
       </c>
       <c r="D19" s="1">
-        <v>12321</v>
+        <v>12324</v>
       </c>
       <c r="E19" s="1">
         <v>5408</v>
@@ -1452,7 +1452,7 @@
         <v>1169</v>
       </c>
       <c r="K19" s="1">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L19" s="1">
         <v>1254</v>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="O19" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
@@ -1530,7 +1530,7 @@
         <v>3595</v>
       </c>
       <c r="E21" s="1">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F21" s="1">
         <v>313</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="O21" s="7">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
@@ -1713,25 +1713,25 @@
         <v>20824</v>
       </c>
       <c r="D25" s="1">
-        <v>91310</v>
+        <v>94310</v>
       </c>
       <c r="E25" s="1">
         <v>100522</v>
       </c>
       <c r="F25" s="1">
-        <v>9834</v>
+        <v>98340</v>
       </c>
       <c r="G25" s="1">
         <v>89704</v>
       </c>
       <c r="H25" s="1">
-        <v>8453</v>
+        <v>84530</v>
       </c>
       <c r="I25" s="1">
         <v>63297</v>
       </c>
       <c r="J25" s="1">
-        <v>16337</v>
+        <v>163370</v>
       </c>
       <c r="K25" s="1">
         <v>150361</v>
@@ -1740,14 +1740,14 @@
         <v>83999</v>
       </c>
       <c r="M25" s="1">
-        <v>344</v>
+        <v>34400</v>
       </c>
       <c r="N25" s="1">
         <v>992654</v>
       </c>
       <c r="O25" s="7">
         <f t="shared" si="0"/>
-        <v>348672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -1758,7 +1758,7 @@
         <v>6250</v>
       </c>
       <c r="C26" s="1">
-        <v>1912</v>
+        <v>1942</v>
       </c>
       <c r="D26" s="1">
         <v>12745</v>
@@ -1773,7 +1773,7 @@
         <v>952696</v>
       </c>
       <c r="H26" s="1">
-        <v>1408446</v>
+        <v>1890945</v>
       </c>
       <c r="I26" s="1">
         <v>1677263</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="O26" s="7">
         <f t="shared" si="0"/>
-        <v>482529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
@@ -1815,7 +1815,7 @@
         <v>75890</v>
       </c>
       <c r="F27" s="1">
-        <v>92518</v>
+        <v>92548</v>
       </c>
       <c r="G27" s="1">
         <v>92470</v>
@@ -1827,7 +1827,7 @@
         <v>103720</v>
       </c>
       <c r="J27" s="1">
-        <v>73712</v>
+        <v>73742</v>
       </c>
       <c r="K27" s="1">
         <v>95567</v>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="O27" s="7">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
@@ -1932,14 +1932,14 @@
         <v>6267</v>
       </c>
       <c r="M29" s="1">
-        <v>815</v>
+        <v>8150</v>
       </c>
       <c r="N29" s="1">
         <v>114209</v>
       </c>
       <c r="O29" s="7">
         <f t="shared" si="0"/>
-        <v>7335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
@@ -1959,7 +1959,7 @@
         <v>12722</v>
       </c>
       <c r="F30" s="1">
-        <v>1228</v>
+        <v>12280</v>
       </c>
       <c r="G30" s="1">
         <v>33590</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="O30" s="7">
         <f t="shared" si="0"/>
-        <v>11052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>51495</v>
       </c>
       <c r="E34" s="1">
-        <v>27111</v>
+        <v>27441</v>
       </c>
       <c r="F34" s="1">
         <v>20399</v>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="O34" s="7">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2211,14 +2211,14 @@
         <v>1896750</v>
       </c>
       <c r="M35" s="1">
-        <v>106412</v>
+        <v>1064120</v>
       </c>
       <c r="N35" s="1">
         <v>33805960</v>
       </c>
       <c r="O35" s="7">
         <f t="shared" si="0"/>
-        <v>957708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
@@ -2229,13 +2229,13 @@
         <v>65546</v>
       </c>
       <c r="C36" s="1">
-        <v>4275</v>
+        <v>42750</v>
       </c>
       <c r="D36" s="1">
         <v>108189</v>
       </c>
       <c r="E36" s="1">
-        <v>81753</v>
+        <v>84753</v>
       </c>
       <c r="F36" s="1">
         <v>60159</v>
@@ -2253,7 +2253,7 @@
         <v>106970</v>
       </c>
       <c r="K36" s="1">
-        <v>10397</v>
+        <v>103970</v>
       </c>
       <c r="L36" s="1">
         <v>89787</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="O36" s="7">
         <f t="shared" si="0"/>
-        <v>135048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
@@ -2277,7 +2277,7 @@
         <v>1031856</v>
       </c>
       <c r="C37" s="1">
-        <v>4569</v>
+        <v>456900</v>
       </c>
       <c r="D37" s="1">
         <v>736742</v>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="O37" s="7">
         <f t="shared" si="0"/>
-        <v>452331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2421,11 +2421,11 @@
         <v>5</v>
       </c>
       <c r="N40" s="1">
-        <v>102</v>
+        <v>1020</v>
       </c>
       <c r="O40" s="7">
         <f t="shared" si="0"/>
-        <v>-918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
@@ -2442,7 +2442,7 @@
         <v>20707</v>
       </c>
       <c r="I41" s="1">
-        <v>3892</v>
+        <v>38920</v>
       </c>
       <c r="J41" s="1">
         <v>43648</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="O41" s="7">
         <f t="shared" si="0"/>
-        <v>35028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
@@ -2855,19 +2855,19 @@
       </c>
       <c r="C51" s="7">
         <f t="shared" ref="C51:O51" si="1">C50-SUM(C2:C49)</f>
-        <v>490839</v>
+        <v>0</v>
       </c>
       <c r="D51" s="7">
         <f t="shared" si="1"/>
-        <v>3003</v>
+        <v>0</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
-        <v>3328</v>
+        <v>0</v>
       </c>
       <c r="F51" s="7">
         <f t="shared" si="1"/>
-        <v>99588</v>
+        <v>0</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="1"/>
@@ -2875,19 +2875,19 @@
       </c>
       <c r="H51" s="7">
         <f t="shared" si="1"/>
-        <v>558576</v>
+        <v>0</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="1"/>
-        <v>35028</v>
+        <v>0</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="1"/>
-        <v>147063</v>
+        <v>0</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="1"/>
-        <v>93576</v>
+        <v>0</v>
       </c>
       <c r="L51" s="7">
         <f t="shared" si="1"/>
@@ -2895,15 +2895,15 @@
       </c>
       <c r="M51" s="7">
         <f t="shared" si="1"/>
-        <v>999099</v>
+        <v>0</v>
       </c>
       <c r="N51" s="7">
         <f t="shared" si="1"/>
-        <v>918</v>
+        <v>0</v>
       </c>
       <c r="O51" s="7">
         <f t="shared" si="1"/>
-        <v>-2429182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>70</v>
       </c>
